--- a/sprawozdanie1/graphs/Dane_IDF.xlsx
+++ b/sprawozdanie1/graphs/Dane_IDF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7992" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Places</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Euklidanin</t>
+  </si>
+  <si>
+    <t>MAKS</t>
   </si>
 </sst>
 </file>
@@ -151,13 +154,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -254,7 +257,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -262,7 +265,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -775,7 +778,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -783,7 +786,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1296,7 +1299,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1304,7 +1307,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1817,7 +1820,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1825,7 +1828,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2338,7 +2341,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2346,7 +2349,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2859,7 +2862,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2867,7 +2870,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3380,7 +3383,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -3388,7 +3391,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3559,7 +3562,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3675,7 +3677,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3754,7 +3755,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3901,7 +3901,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -3909,7 +3909,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4080,7 +4080,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4196,7 +4195,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4275,7 +4273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4422,7 +4419,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -4430,7 +4427,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4601,7 +4598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4717,7 +4713,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4796,7 +4791,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9768,14 +9762,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -9783,7 +9777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -9798,61 +9792,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AR67"/>
+  <dimension ref="B2:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:44" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="T5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AK5" s="3" t="s">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AK5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -9890,7 +9884,7 @@
       </c>
       <c r="AR7" s="4"/>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -9902,14 +9896,14 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>H45</f>
+        <f t="shared" ref="F8:F14" si="0">H45</f>
         <v>77.8</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <f>C45</f>
+        <f t="shared" ref="I8:I14" si="1">C45</f>
         <v>77.599999999999994</v>
       </c>
       <c r="T8">
@@ -9923,14 +9917,14 @@
         <v>2</v>
       </c>
       <c r="X8">
-        <f>H53</f>
+        <f t="shared" ref="X8:X14" si="2">H53</f>
         <v>78.8</v>
       </c>
       <c r="Z8">
         <v>2</v>
       </c>
       <c r="AA8">
-        <f>C53</f>
+        <f t="shared" ref="AA8:AA14" si="3">C53</f>
         <v>79.8</v>
       </c>
       <c r="AK8">
@@ -9944,440 +9938,440 @@
         <v>2</v>
       </c>
       <c r="AO8">
-        <f>H61</f>
+        <f t="shared" ref="AO8:AO14" si="4">H61</f>
         <v>79.2</v>
       </c>
       <c r="AQ8">
         <v>2</v>
       </c>
       <c r="AR8">
-        <f>C61</f>
+        <f t="shared" ref="AR8:AR14" si="5">C61</f>
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C14" si="0">M46</f>
+        <f t="shared" ref="C9:C14" si="6">M46</f>
         <v>82.6</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <f>H46</f>
+        <f t="shared" si="0"/>
         <v>81.2</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <f>C46</f>
+        <f t="shared" si="1"/>
         <v>80.7</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <f t="shared" ref="U9:U14" si="1">M54</f>
+        <f t="shared" ref="U9:U14" si="7">M54</f>
         <v>82.3</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="X9">
-        <f>H54</f>
+        <f t="shared" si="2"/>
         <v>81.8</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
       <c r="AA9">
-        <f>C54</f>
+        <f t="shared" si="3"/>
         <v>81.8</v>
       </c>
       <c r="AK9">
         <v>3</v>
       </c>
       <c r="AL9">
-        <f t="shared" ref="AL9:AL14" si="2">M62</f>
+        <f t="shared" ref="AL9:AL14" si="8">M62</f>
         <v>83.8</v>
       </c>
       <c r="AN9">
         <v>3</v>
       </c>
       <c r="AO9">
-        <f>H62</f>
+        <f t="shared" si="4"/>
         <v>83.3</v>
       </c>
       <c r="AQ9">
         <v>3</v>
       </c>
       <c r="AR9">
-        <f>C62</f>
+        <f t="shared" si="5"/>
         <v>82.4</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>82.9</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
-        <f>H47</f>
+        <f t="shared" si="0"/>
         <v>81.7</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <f>C47</f>
+        <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
       <c r="T10">
         <v>5</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>83.5</v>
       </c>
       <c r="W10">
         <v>5</v>
       </c>
       <c r="X10">
-        <f>H55</f>
+        <f t="shared" si="2"/>
         <v>82.6</v>
       </c>
       <c r="Z10">
         <v>5</v>
       </c>
       <c r="AA10">
-        <f>C55</f>
+        <f t="shared" si="3"/>
         <v>81.599999999999994</v>
       </c>
       <c r="AK10">
         <v>5</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83.8</v>
       </c>
       <c r="AN10">
         <v>5</v>
       </c>
       <c r="AO10">
-        <f>H63</f>
+        <f t="shared" si="4"/>
         <v>83.4</v>
       </c>
       <c r="AQ10">
         <v>5</v>
       </c>
       <c r="AR10">
-        <f>C63</f>
+        <f t="shared" si="5"/>
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>82.3</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11">
-        <f>H48</f>
+        <f t="shared" si="0"/>
         <v>81.3</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11">
-        <f>C48</f>
+        <f t="shared" si="1"/>
         <v>81.2</v>
       </c>
       <c r="T11">
         <v>7</v>
       </c>
       <c r="U11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>83.7</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
       <c r="X11">
-        <f>H56</f>
+        <f t="shared" si="2"/>
         <v>82.8</v>
       </c>
       <c r="Z11">
         <v>7</v>
       </c>
       <c r="AA11">
-        <f>C56</f>
+        <f t="shared" si="3"/>
         <v>81.7</v>
       </c>
       <c r="AK11">
         <v>7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83.8</v>
       </c>
       <c r="AN11">
         <v>7</v>
       </c>
       <c r="AO11">
-        <f>H64</f>
+        <f t="shared" si="4"/>
         <v>83.3</v>
       </c>
       <c r="AQ11">
         <v>7</v>
       </c>
       <c r="AR11">
-        <f>C64</f>
+        <f t="shared" si="5"/>
         <v>81.7</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>81.7</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <f>H49</f>
+        <f t="shared" si="0"/>
         <v>81.2</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <f>C49</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="T12">
         <v>10</v>
       </c>
       <c r="U12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>83.4</v>
       </c>
       <c r="W12">
         <v>10</v>
       </c>
       <c r="X12">
-        <f>H57</f>
+        <f t="shared" si="2"/>
         <v>82.2</v>
       </c>
       <c r="Z12">
         <v>10</v>
       </c>
       <c r="AA12">
-        <f>C57</f>
+        <f t="shared" si="3"/>
         <v>81.599999999999994</v>
       </c>
       <c r="AK12">
         <v>10</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83.5</v>
       </c>
       <c r="AN12">
         <v>10</v>
       </c>
       <c r="AO12">
-        <f>H65</f>
+        <f t="shared" si="4"/>
         <v>82.9</v>
       </c>
       <c r="AQ12">
         <v>10</v>
       </c>
       <c r="AR12">
-        <f>C65</f>
+        <f t="shared" si="5"/>
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>15</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>81.3</v>
       </c>
       <c r="E13">
         <v>15</v>
       </c>
       <c r="F13">
-        <f>H50</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="H13">
         <v>15</v>
       </c>
       <c r="I13">
-        <f>C50</f>
+        <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
       <c r="T13">
         <v>15</v>
       </c>
       <c r="U13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>82.8</v>
       </c>
       <c r="W13">
         <v>15</v>
       </c>
       <c r="X13">
-        <f>H58</f>
+        <f t="shared" si="2"/>
         <v>81.900000000000006</v>
       </c>
       <c r="Z13">
         <v>15</v>
       </c>
       <c r="AA13">
-        <f>C58</f>
+        <f t="shared" si="3"/>
         <v>81.599999999999994</v>
       </c>
       <c r="AK13">
         <v>15</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83.7</v>
       </c>
       <c r="AN13">
         <v>15</v>
       </c>
       <c r="AO13">
-        <f>H66</f>
+        <f t="shared" si="4"/>
         <v>82.8</v>
       </c>
       <c r="AQ13">
         <v>15</v>
       </c>
       <c r="AR13">
-        <f>C66</f>
+        <f t="shared" si="5"/>
         <v>82.2</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <f>H51</f>
-        <v>81</v>
-      </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14">
-        <f>C51</f>
+        <f t="shared" si="1"/>
         <v>79.599999999999994</v>
       </c>
       <c r="T14">
         <v>20</v>
       </c>
       <c r="U14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>82.6</v>
       </c>
       <c r="W14">
         <v>20</v>
       </c>
       <c r="X14">
-        <f>H59</f>
+        <f t="shared" si="2"/>
         <v>81.5</v>
       </c>
       <c r="Z14">
         <v>20</v>
       </c>
       <c r="AA14">
-        <f>C59</f>
+        <f t="shared" si="3"/>
         <v>81.5</v>
       </c>
       <c r="AK14">
         <v>20</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>83.1</v>
       </c>
       <c r="AN14">
         <v>20</v>
       </c>
       <c r="AO14">
-        <f>H67</f>
+        <f t="shared" si="4"/>
         <v>82.2</v>
       </c>
       <c r="AQ14">
         <v>20</v>
       </c>
       <c r="AR14">
-        <f>C67</f>
+        <f t="shared" si="5"/>
         <v>82.1</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="T17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AK17" s="3" t="s">
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AK17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
@@ -10415,7 +10409,7 @@
       </c>
       <c r="AR19" s="4"/>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -10427,14 +10421,14 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f>I45</f>
+        <f t="shared" ref="F20:F26" si="9">I45</f>
         <v>31.5</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <f>D45</f>
+        <f t="shared" ref="I20:I26" si="10">D45</f>
         <v>31.5</v>
       </c>
       <c r="T20">
@@ -10448,14 +10442,14 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <f>I53</f>
+        <f t="shared" ref="X20:X26" si="11">I53</f>
         <v>19.600000000000001</v>
       </c>
       <c r="Z20">
         <v>2</v>
       </c>
       <c r="AA20">
-        <f>D53</f>
+        <f t="shared" ref="AA20:AA26" si="12">D53</f>
         <v>41.3</v>
       </c>
       <c r="AK20">
@@ -10469,440 +10463,440 @@
         <v>2</v>
       </c>
       <c r="AO20" s="2">
-        <f>I61</f>
+        <f t="shared" ref="AO20:AO26" si="13">I61</f>
         <v>26.1</v>
       </c>
       <c r="AQ20">
         <v>2</v>
       </c>
       <c r="AR20">
-        <f>D61</f>
+        <f t="shared" ref="AR20:AR26" si="14">D61</f>
         <v>43.5</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C26" si="3">N46</f>
+        <f t="shared" ref="C21:C26" si="15">N46</f>
         <v>31.5</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <f>I46</f>
+        <f t="shared" si="9"/>
         <v>34.799999999999997</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <f>D46</f>
+        <f t="shared" si="10"/>
         <v>31.5</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <f t="shared" ref="U21:U26" si="4">N54</f>
+        <f t="shared" ref="U21:U26" si="16">N54</f>
         <v>32.6</v>
       </c>
       <c r="W21">
         <v>3</v>
       </c>
       <c r="X21">
-        <f>I54</f>
+        <f t="shared" si="11"/>
         <v>19.600000000000001</v>
       </c>
       <c r="Z21">
         <v>3</v>
       </c>
       <c r="AA21">
-        <f>D54</f>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="AK21">
         <v>3</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" ref="AL21:AL26" si="5">N62</f>
+        <f t="shared" ref="AL21:AL26" si="17">N62</f>
         <v>34.799999999999997</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21" s="2">
-        <f>I62</f>
+        <f t="shared" si="13"/>
         <v>30.4</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
       <c r="AR21">
-        <f>D62</f>
+        <f t="shared" si="14"/>
         <v>39.1</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>29.3</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <f>I47</f>
+        <f t="shared" si="9"/>
         <v>33.700000000000003</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
-        <f>D47</f>
+        <f t="shared" si="10"/>
         <v>40.200000000000003</v>
       </c>
       <c r="T22">
         <v>5</v>
       </c>
       <c r="U22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>28.3</v>
       </c>
       <c r="W22">
         <v>5</v>
       </c>
       <c r="X22">
-        <f>I55</f>
+        <f t="shared" si="11"/>
         <v>19.600000000000001</v>
       </c>
       <c r="Z22">
         <v>5</v>
       </c>
       <c r="AA22">
-        <f>D55</f>
+        <f t="shared" si="12"/>
         <v>28.3</v>
       </c>
       <c r="AK22">
         <v>5</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>21.7</v>
       </c>
       <c r="AN22">
         <v>5</v>
       </c>
       <c r="AO22" s="2">
-        <f>I63</f>
+        <f t="shared" si="13"/>
         <v>26.1</v>
       </c>
       <c r="AQ22">
         <v>5</v>
       </c>
       <c r="AR22">
-        <f>D63</f>
+        <f t="shared" si="14"/>
         <v>26.1</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>33.700000000000003</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23">
-        <f>I48</f>
+        <f t="shared" si="9"/>
         <v>34.799999999999997</v>
       </c>
       <c r="H23">
         <v>7</v>
       </c>
       <c r="I23">
-        <f>D48</f>
+        <f t="shared" si="10"/>
         <v>33.700000000000003</v>
       </c>
       <c r="T23">
         <v>7</v>
       </c>
       <c r="U23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>28.3</v>
       </c>
       <c r="W23">
         <v>7</v>
       </c>
       <c r="X23">
-        <f>I56</f>
+        <f t="shared" si="11"/>
         <v>17.399999999999999</v>
       </c>
       <c r="Z23">
         <v>7</v>
       </c>
       <c r="AA23">
-        <f>D56</f>
+        <f t="shared" si="12"/>
         <v>39.1</v>
       </c>
       <c r="AK23">
         <v>7</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>26.1</v>
       </c>
       <c r="AN23">
         <v>7</v>
       </c>
       <c r="AO23" s="2">
-        <f>I64</f>
+        <f t="shared" si="13"/>
         <v>21.7</v>
       </c>
       <c r="AQ23">
         <v>7</v>
       </c>
       <c r="AR23">
-        <f>D64</f>
+        <f t="shared" si="14"/>
         <v>30.4</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>33.700000000000003</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
-        <f>I49</f>
+        <f t="shared" si="9"/>
         <v>35.9</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <f>D49</f>
+        <f t="shared" si="10"/>
         <v>34.799999999999997</v>
       </c>
       <c r="T24">
         <v>10</v>
       </c>
       <c r="U24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>28.3</v>
       </c>
       <c r="W24">
         <v>10</v>
       </c>
       <c r="X24">
-        <f>I57</f>
+        <f t="shared" si="11"/>
         <v>19.600000000000001</v>
       </c>
       <c r="Z24">
         <v>10</v>
       </c>
       <c r="AA24">
-        <f>D57</f>
+        <f t="shared" si="12"/>
         <v>34.799999999999997</v>
       </c>
       <c r="AK24">
         <v>10</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>26.1</v>
       </c>
       <c r="AN24">
         <v>10</v>
       </c>
       <c r="AO24" s="2">
-        <f>I65</f>
+        <f t="shared" si="13"/>
         <v>26.1</v>
       </c>
       <c r="AQ24">
         <v>10</v>
       </c>
       <c r="AR24">
-        <f>D65</f>
+        <f t="shared" si="14"/>
         <v>26.1</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>35.9</v>
       </c>
       <c r="E25">
         <v>15</v>
       </c>
       <c r="F25">
-        <f>I50</f>
+        <f t="shared" si="9"/>
         <v>35.9</v>
       </c>
       <c r="H25">
         <v>15</v>
       </c>
       <c r="I25">
-        <f>D50</f>
+        <f t="shared" si="10"/>
         <v>35.9</v>
       </c>
       <c r="T25">
         <v>15</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>21.7</v>
       </c>
       <c r="W25">
         <v>15</v>
       </c>
       <c r="X25">
-        <f>I58</f>
+        <f t="shared" si="11"/>
         <v>19.600000000000001</v>
       </c>
       <c r="Z25">
         <v>15</v>
       </c>
       <c r="AA25">
-        <f>D58</f>
+        <f t="shared" si="12"/>
         <v>23.9</v>
       </c>
       <c r="AK25">
         <v>15</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>43.5</v>
       </c>
       <c r="AN25">
         <v>15</v>
       </c>
       <c r="AO25" s="2">
-        <f>I66</f>
+        <f t="shared" si="13"/>
         <v>39.1</v>
       </c>
       <c r="AQ25">
         <v>15</v>
       </c>
       <c r="AR25">
-        <f>D66</f>
+        <f t="shared" si="14"/>
         <v>26.1</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>35.9</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26">
-        <f>I51</f>
+        <f t="shared" si="9"/>
         <v>35.9</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
       <c r="I26">
-        <f>D51</f>
+        <f t="shared" si="10"/>
         <v>35.9</v>
       </c>
       <c r="T26">
         <v>20</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>26.1</v>
       </c>
       <c r="W26">
         <v>20</v>
       </c>
       <c r="X26">
-        <f>I59</f>
+        <f t="shared" si="11"/>
         <v>26.1</v>
       </c>
       <c r="Z26">
         <v>20</v>
       </c>
       <c r="AA26">
-        <f>D59</f>
+        <f t="shared" si="12"/>
         <v>23.9</v>
       </c>
       <c r="AK26">
         <v>20</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>34.799999999999997</v>
       </c>
       <c r="AN26">
         <v>20</v>
       </c>
       <c r="AO26" s="2">
-        <f>I67</f>
+        <f t="shared" si="13"/>
         <v>26.1</v>
       </c>
       <c r="AQ26">
         <v>20</v>
       </c>
       <c r="AR26">
-        <f>D67</f>
+        <f t="shared" si="14"/>
         <v>26.1</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="T29" s="3" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="T29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AK29" s="3" t="s">
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AK29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
@@ -10940,7 +10934,7 @@
       </c>
       <c r="AR31" s="4"/>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2</v>
       </c>
@@ -10952,14 +10946,14 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f>J45</f>
+        <f t="shared" ref="F32:F38" si="18">J45</f>
         <v>50</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <f>E45</f>
+        <f t="shared" ref="I32:I38" si="19">E45</f>
         <v>62.5</v>
       </c>
       <c r="T32">
@@ -10973,14 +10967,14 @@
         <v>2</v>
       </c>
       <c r="X32">
-        <f>J53</f>
+        <f t="shared" ref="X32:X38" si="20">J53</f>
         <v>60</v>
       </c>
       <c r="Z32">
         <v>2</v>
       </c>
       <c r="AA32">
-        <f>E53</f>
+        <f t="shared" ref="AA32:AA38" si="21">E53</f>
         <v>47.5</v>
       </c>
       <c r="AK32">
@@ -10994,408 +10988,408 @@
         <v>2</v>
       </c>
       <c r="AO32">
-        <f>J61</f>
+        <f t="shared" ref="AO32:AO38" si="22">J61</f>
         <v>50</v>
       </c>
       <c r="AQ32">
         <v>2</v>
       </c>
       <c r="AR32">
-        <f>E61</f>
+        <f t="shared" ref="AR32:AR38" si="23">E61</f>
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C38" si="6">O46</f>
+        <f t="shared" ref="C33:C38" si="24">O46</f>
         <v>43.8</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <f>J46</f>
+        <f t="shared" si="18"/>
         <v>63.7</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <f>E46</f>
+        <f t="shared" si="19"/>
         <v>51.2</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33">
-        <f t="shared" ref="U33:U38" si="7">O54</f>
+        <f t="shared" ref="U33:U38" si="25">O54</f>
         <v>62.5</v>
       </c>
       <c r="W33">
         <v>3</v>
       </c>
       <c r="X33">
-        <f>J54</f>
+        <f t="shared" si="20"/>
         <v>52.5</v>
       </c>
       <c r="Z33">
         <v>3</v>
       </c>
       <c r="AA33">
-        <f>E54</f>
+        <f t="shared" si="21"/>
         <v>42.5</v>
       </c>
       <c r="AK33">
         <v>3</v>
       </c>
       <c r="AL33">
-        <f t="shared" ref="AL33:AL38" si="8">O62</f>
+        <f t="shared" ref="AL33:AL38" si="26">O62</f>
         <v>65</v>
       </c>
       <c r="AN33">
         <v>3</v>
       </c>
       <c r="AO33">
-        <f>J62</f>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AQ33">
         <v>3</v>
       </c>
       <c r="AR33">
-        <f>E62</f>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="F34">
-        <f>J47</f>
+        <f t="shared" si="18"/>
         <v>52.5</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <f>E47</f>
+        <f t="shared" si="19"/>
         <v>58.8</v>
       </c>
       <c r="T34">
         <v>5</v>
       </c>
       <c r="U34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="W34">
         <v>5</v>
       </c>
       <c r="X34">
-        <f>J55</f>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="Z34">
         <v>5</v>
       </c>
       <c r="AA34">
-        <f>E55</f>
+        <f t="shared" si="21"/>
         <v>62.5</v>
       </c>
       <c r="AK34">
         <v>5</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
       <c r="AN34">
         <v>5</v>
       </c>
       <c r="AO34">
-        <f>J63</f>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AQ34">
         <v>5</v>
       </c>
       <c r="AR34">
-        <f>E63</f>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>7</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>66.2</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
       <c r="F35">
-        <f>J48</f>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="H35">
         <v>7</v>
       </c>
       <c r="I35">
-        <f>E48</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="T35">
         <v>7</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>67.5</v>
       </c>
       <c r="W35">
         <v>7</v>
       </c>
       <c r="X35">
-        <f>J56</f>
+        <f t="shared" si="20"/>
         <v>67.5</v>
       </c>
       <c r="Z35">
         <v>7</v>
       </c>
       <c r="AA35">
-        <f>E56</f>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="AK35">
         <v>7</v>
       </c>
       <c r="AL35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="AN35">
         <v>7</v>
       </c>
       <c r="AO35">
-        <f>J64</f>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AQ35">
         <v>7</v>
       </c>
       <c r="AR35">
-        <f>E64</f>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>51.2</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="F36">
-        <f>J49</f>
+        <f t="shared" si="18"/>
         <v>57.5</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <f>E49</f>
+        <f t="shared" si="19"/>
         <v>47.5</v>
       </c>
       <c r="T36">
         <v>10</v>
       </c>
       <c r="U36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="W36">
         <v>10</v>
       </c>
       <c r="X36">
-        <f>J57</f>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="Z36">
         <v>10</v>
       </c>
       <c r="AA36">
-        <f>E57</f>
+        <f t="shared" si="21"/>
         <v>65</v>
       </c>
       <c r="AK36">
         <v>10</v>
       </c>
       <c r="AL36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="AN36">
         <v>10</v>
       </c>
       <c r="AO36">
-        <f>J65</f>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="AQ36">
         <v>10</v>
       </c>
       <c r="AR36">
-        <f>E65</f>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>15</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>46.2</v>
       </c>
       <c r="E37">
         <v>15</v>
       </c>
       <c r="F37">
-        <f>J50</f>
+        <f t="shared" si="18"/>
         <v>47.5</v>
       </c>
       <c r="H37">
         <v>15</v>
       </c>
       <c r="I37">
-        <f>E50</f>
+        <f t="shared" si="19"/>
         <v>57.5</v>
       </c>
       <c r="T37">
         <v>15</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>42.5</v>
       </c>
       <c r="W37">
         <v>15</v>
       </c>
       <c r="X37">
-        <f>J58</f>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
       <c r="Z37">
         <v>15</v>
       </c>
       <c r="AA37">
-        <f>E58</f>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="AK37">
         <v>15</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="AN37">
         <v>15</v>
       </c>
       <c r="AO37">
-        <f>J66</f>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AQ37">
         <v>15</v>
       </c>
       <c r="AR37">
-        <f>E66</f>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>20</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>46.2</v>
       </c>
       <c r="E38">
         <v>20</v>
       </c>
       <c r="F38">
-        <f>J51</f>
+        <f t="shared" si="18"/>
         <v>47.5</v>
       </c>
       <c r="H38">
         <v>20</v>
       </c>
       <c r="I38">
-        <f>E51</f>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="T38">
         <v>20</v>
       </c>
       <c r="U38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="W38">
         <v>20</v>
       </c>
       <c r="X38">
-        <f>J59</f>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="Z38">
         <v>20</v>
       </c>
       <c r="AA38">
-        <f>E59</f>
+        <f t="shared" si="21"/>
         <v>52.5</v>
       </c>
       <c r="AK38">
         <v>20</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
       <c r="AN38">
         <v>20</v>
       </c>
       <c r="AO38">
-        <f>J67</f>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="AQ38">
         <v>20</v>
       </c>
       <c r="AR38">
-        <f>E67</f>
+        <f t="shared" si="23"/>
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>13</v>
       </c>
@@ -11406,7 +11400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
@@ -11444,7 +11438,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>3</v>
       </c>
@@ -11482,7 +11476,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -11520,7 +11514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -11558,7 +11552,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>10</v>
       </c>
@@ -11596,7 +11590,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>15</v>
       </c>
@@ -11634,7 +11628,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>20</v>
       </c>
@@ -11672,7 +11666,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
@@ -11710,7 +11704,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>3</v>
       </c>
@@ -11748,7 +11742,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>5</v>
       </c>
@@ -11786,7 +11780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>7</v>
       </c>
@@ -11824,7 +11818,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>10</v>
       </c>
@@ -11862,7 +11856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>15</v>
       </c>
@@ -11900,7 +11894,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>20</v>
       </c>
@@ -11938,7 +11932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -11976,7 +11970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -12014,7 +12008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>5</v>
       </c>
@@ -12052,7 +12046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>7</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>10</v>
       </c>
@@ -12128,7 +12122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>15</v>
       </c>
@@ -12166,7 +12160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>20</v>
       </c>
@@ -12201,11 +12195,89 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <f>MAX(C45:C67)</f>
+        <v>82.4</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:O68" si="27">MAX(D45:D67)</f>
+        <v>63</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="27"/>
+        <v>80</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="27"/>
+        <v>83.4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="27"/>
+        <v>39.1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="27"/>
+        <v>83.8</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="27"/>
+        <v>43.5</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="27"/>
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AK5:AR5"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AK17:AR17"/>
     <mergeCell ref="AK19:AL19"/>
     <mergeCell ref="AN19:AO19"/>
     <mergeCell ref="AQ19:AR19"/>
@@ -12213,35 +12285,6 @@
     <mergeCell ref="AK31:AL31"/>
     <mergeCell ref="AN31:AO31"/>
     <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="AK5:AR5"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
